--- a/config_3.16/item_config.xlsx
+++ b/config_3.16/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3918,10 +3918,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xrxsfl_icon_15ylb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4155,6 +4151,10 @@
   </si>
   <si>
     <t>xrxsfl_jbzk_icon_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4740,8 +4740,8 @@
   <dimension ref="A1:Q320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9099,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>1024</v>
+        <v>1049</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>931</v>
@@ -15156,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G308" s="11">
         <v>1</v>
@@ -15407,7 +15407,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D315" s="11">
         <v>-1</v>
@@ -15416,22 +15416,22 @@
         <v>1</v>
       </c>
       <c r="F315" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G315" s="2">
+        <v>1</v>
+      </c>
+      <c r="H315" s="11">
+        <v>1</v>
+      </c>
+      <c r="I315" s="5" t="s">
         <v>1025</v>
-      </c>
-      <c r="G315" s="2">
-        <v>1</v>
-      </c>
-      <c r="H315" s="11">
-        <v>1</v>
-      </c>
-      <c r="I315" s="5" t="s">
-        <v>1026</v>
       </c>
       <c r="J315" s="2" t="s">
         <v>1014</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15442,7 +15442,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D316" s="11">
         <v>-1</v>
@@ -15451,22 +15451,22 @@
         <v>1</v>
       </c>
       <c r="F316" s="19" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G316" s="2">
+        <v>1</v>
+      </c>
+      <c r="H316" s="11">
+        <v>1</v>
+      </c>
+      <c r="I316" s="5" t="s">
         <v>1028</v>
-      </c>
-      <c r="G316" s="2">
-        <v>1</v>
-      </c>
-      <c r="H316" s="11">
-        <v>1</v>
-      </c>
-      <c r="I316" s="5" t="s">
-        <v>1029</v>
       </c>
       <c r="J316" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15477,7 +15477,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D317" s="11">
         <v>-1</v>
@@ -15486,22 +15486,22 @@
         <v>1</v>
       </c>
       <c r="F317" s="19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G317" s="2">
+        <v>1</v>
+      </c>
+      <c r="H317" s="11">
+        <v>1</v>
+      </c>
+      <c r="I317" s="5" t="s">
         <v>1031</v>
-      </c>
-      <c r="G317" s="2">
-        <v>1</v>
-      </c>
-      <c r="H317" s="11">
-        <v>1</v>
-      </c>
-      <c r="I317" s="5" t="s">
-        <v>1032</v>
       </c>
       <c r="J317" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15512,7 +15512,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D318" s="11">
         <v>-1</v>
@@ -15521,22 +15521,22 @@
         <v>1</v>
       </c>
       <c r="F318" s="19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G318" s="2">
+        <v>1</v>
+      </c>
+      <c r="H318" s="11">
+        <v>1</v>
+      </c>
+      <c r="I318" s="5" t="s">
         <v>1034</v>
-      </c>
-      <c r="G318" s="2">
-        <v>1</v>
-      </c>
-      <c r="H318" s="11">
-        <v>1</v>
-      </c>
-      <c r="I318" s="5" t="s">
-        <v>1035</v>
       </c>
       <c r="J318" s="2" t="s">
         <v>1017</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -15547,7 +15547,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D319" s="2">
         <v>-1</v>
@@ -15556,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G319" s="2">
         <v>0</v>
@@ -15565,10 +15565,10 @@
         <v>1</v>
       </c>
       <c r="I319" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J319" s="5" t="s">
         <v>1038</v>
-      </c>
-      <c r="J319" s="5" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -15579,7 +15579,7 @@
         <v>319</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D320" s="2">
         <v>-1</v>
@@ -15588,7 +15588,7 @@
         <v>1</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G320" s="2">
         <v>1</v>
@@ -15597,10 +15597,10 @@
         <v>1</v>
       </c>
       <c r="I320" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J320" s="5" t="s">
         <v>1046</v>
-      </c>
-      <c r="J320" s="5" t="s">
-        <v>1047</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.16/item_config.xlsx
+++ b/config_3.16/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1051">
   <si>
     <t>id|行号</t>
   </si>
@@ -4155,6 +4155,10 @@
   </si>
   <si>
     <t>桃花</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4740,8 +4744,8 @@
   <dimension ref="A1:Q320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I140" sqref="I140"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9090,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="34" t="s">
-        <v>914</v>
+        <v>1050</v>
       </c>
       <c r="G131" s="33">
         <v>0</v>
@@ -14586,35 +14590,35 @@
         <v>915</v>
       </c>
     </row>
-    <row r="291" spans="1:12" s="11" customFormat="1">
-      <c r="A291" s="11">
+    <row r="291" spans="1:12" s="33" customFormat="1">
+      <c r="A291" s="33">
         <v>290</v>
       </c>
-      <c r="B291" s="11">
+      <c r="B291" s="33">
         <v>290</v>
       </c>
-      <c r="C291" s="12" t="s">
+      <c r="C291" s="34" t="s">
         <v>919</v>
       </c>
-      <c r="D291" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E291" s="11">
-        <v>1</v>
-      </c>
-      <c r="F291" s="12" t="s">
+      <c r="D291" s="33">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="33">
+        <v>1</v>
+      </c>
+      <c r="F291" s="34" t="s">
         <v>920</v>
       </c>
-      <c r="G291" s="11">
+      <c r="G291" s="33">
         <v>0</v>
       </c>
-      <c r="H291" s="11">
+      <c r="H291" s="33">
         <v>33</v>
       </c>
-      <c r="I291" s="12" t="s">
+      <c r="I291" s="34" t="s">
         <v>917</v>
       </c>
-      <c r="J291" s="12" t="s">
+      <c r="J291" s="34" t="s">
         <v>918</v>
       </c>
     </row>

--- a/config_3.16/item_config.xlsx
+++ b/config_3.16/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3926,45 +3926,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"act_xrxsfl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_lb","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prop_xrxsfl_15box</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xrxsfl_icon_50ylb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3973,45 +3934,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"act_xrxsfl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_lb","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prop_xrxsfl_50box</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xrxsfl_icon_10ylb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4020,45 +3942,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"act_xrxsfl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_lb","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prop_xrxsfl_10box</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>xrxsfl_icon_30ylb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4067,45 +3950,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"act_xrxsfl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_lb","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prop_xrxsfl_30box</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>obj_jbzk</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4159,6 +4003,22 @@
   </si>
   <si>
     <t>act_ty_by_drop_7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_15box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_50box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_10box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_30box"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4743,9 +4603,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L318" sqref="L318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9094,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="34" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G131" s="33">
         <v>0</v>
@@ -9103,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>931</v>
@@ -15160,7 +15020,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="19" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="G308" s="11">
         <v>1</v>
@@ -15411,7 +15271,7 @@
         <v>314</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D315" s="11">
         <v>-1</v>
@@ -15435,7 +15295,7 @@
         <v>1014</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>1026</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15446,7 +15306,7 @@
         <v>315</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D316" s="11">
         <v>-1</v>
@@ -15455,22 +15315,22 @@
         <v>1</v>
       </c>
       <c r="F316" s="19" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G316" s="2">
+        <v>1</v>
+      </c>
+      <c r="H316" s="11">
+        <v>1</v>
+      </c>
+      <c r="I316" s="5" t="s">
         <v>1027</v>
-      </c>
-      <c r="G316" s="2">
-        <v>1</v>
-      </c>
-      <c r="H316" s="11">
-        <v>1</v>
-      </c>
-      <c r="I316" s="5" t="s">
-        <v>1028</v>
       </c>
       <c r="J316" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>1029</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15481,7 +15341,7 @@
         <v>316</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D317" s="11">
         <v>-1</v>
@@ -15490,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="F317" s="19" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G317" s="2">
         <v>1</v>
@@ -15499,13 +15359,13 @@
         <v>1</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="J317" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>1032</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15516,7 +15376,7 @@
         <v>317</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D318" s="11">
         <v>-1</v>
@@ -15525,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="F318" s="19" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="G318" s="2">
         <v>1</v>
@@ -15534,13 +15394,13 @@
         <v>1</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="J318" s="2" t="s">
         <v>1017</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>1035</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -15551,7 +15411,7 @@
         <v>318</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D319" s="2">
         <v>-1</v>
@@ -15560,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G319" s="2">
         <v>0</v>
@@ -15569,10 +15429,10 @@
         <v>1</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="J319" s="5" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -15583,17 +15443,17 @@
         <v>319</v>
       </c>
       <c r="C320" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D320" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E320" s="2">
+        <v>1</v>
+      </c>
+      <c r="F320" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="D320" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E320" s="2">
-        <v>1</v>
-      </c>
-      <c r="F320" s="5" t="s">
-        <v>1047</v>
-      </c>
       <c r="G320" s="2">
         <v>1</v>
       </c>
@@ -15601,10 +15461,10 @@
         <v>1</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.16/item_config.xlsx
+++ b/config_3.16/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1052">
   <si>
     <t>id|行号</t>
   </si>
@@ -3974,51 +3974,55 @@
     <t>obj_xrxsfl_30box</t>
   </si>
   <si>
+    <t>com_award_icon_czyhq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5～50元红包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后获得优惠券，再商城单笔充值≥50元档次可用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_icon_hb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrxsfl_jbzk_icon_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_15box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_50box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_10box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl","obj_xrxsfl_30box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>obj_xrxsfl_5_50box</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_czyhq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5～50元红包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启后获得优惠券，再商城单笔充值≥50元档次可用</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrxsfl_icon_hb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xrxsfl_jbzk_icon_jbzk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrxsfl","obj_xrxsfl_15box"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrxsfl","obj_xrxsfl_50box"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrxsfl","obj_xrxsfl_10box"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrxsfl","obj_xrxsfl_30box"</t>
+    <t>"act_xrxsfl","obj_xrxsfl_5_50box"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4604,8 +4608,8 @@
   <dimension ref="A1:Q320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L318" sqref="L318"/>
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L320" sqref="L320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8954,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G131" s="33">
         <v>0</v>
@@ -8963,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>931</v>
@@ -15020,7 +15024,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G308" s="11">
         <v>1</v>
@@ -15295,7 +15299,7 @@
         <v>1014</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15330,7 +15334,7 @@
         <v>1015</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15365,7 +15369,7 @@
         <v>1016</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15400,7 +15404,7 @@
         <v>1017</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -15420,7 +15424,7 @@
         <v>1</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G319" s="2">
         <v>0</v>
@@ -15443,7 +15447,7 @@
         <v>319</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="D320" s="2">
         <v>-1</v>
@@ -15452,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G320" s="2">
         <v>1</v>
@@ -15461,10 +15465,13 @@
         <v>1</v>
       </c>
       <c r="I320" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J320" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="J320" s="5" t="s">
-        <v>1042</v>
+      <c r="L320" s="5" t="s">
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
